--- a/Manual Test Cases.xlsx
+++ b/Manual Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://constellationhbs-my.sharepoint.com/personal/muhammad_atif_contour-software_com/Documents/Automation/AutomationDemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="372" documentId="8_{8F39FCDF-9F62-442C-BE88-434FDF9E7BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C8B0869-DDA7-4716-9DB2-6029C64CC322}"/>
+  <xr:revisionPtr revIDLastSave="374" documentId="8_{8F39FCDF-9F62-442C-BE88-434FDF9E7BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49B173BC-BF5D-44D3-A59E-4BD79EACEFFB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{38CED61A-7813-4CC1-9340-746FCD3C9328}"/>
   </bookViews>
@@ -594,22 +594,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -620,12 +608,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -634,6 +616,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -953,7 +953,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E11" sqref="E11:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,103 +967,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="2"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="2"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="2"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="2"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1084,582 +1084,597 @@
       <c r="F10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="12"/>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="2"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="12"/>
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="2"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="12"/>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="2"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="3" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="2"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="12"/>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="2"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="12"/>
       <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="2"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="2"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="12"/>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="2"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="12"/>
       <c r="C22" t="s">
         <v>23</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="2"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="12"/>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="2"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="12"/>
       <c r="C24" t="s">
         <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="2"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="12"/>
       <c r="C25" t="s">
         <v>28</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="2"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="12"/>
       <c r="C26" t="s">
         <v>30</v>
       </c>
       <c r="D26" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="2"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="12"/>
       <c r="C27" t="s">
         <v>33</v>
       </c>
       <c r="D27" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="2"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="12"/>
       <c r="C28" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="6">
         <v>74600</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="2"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="12"/>
       <c r="C29" t="s">
         <v>35</v>
       </c>
       <c r="D29" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="2"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="12"/>
       <c r="C30" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="5">
         <v>3232734362</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="2"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="12"/>
       <c r="C31" t="s">
         <v>37</v>
       </c>
       <c r="D31" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="2"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="12"/>
       <c r="C32" t="s">
         <v>40</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="2"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G33" s="2"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G34" s="2"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
       <c r="C35" t="s">
         <v>43</v>
       </c>
       <c r="D35" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="2"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
       <c r="C36" t="s">
         <v>45</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="2"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G38" s="2"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="3" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="2"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
       <c r="C40" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="5">
         <v>5</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="2"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
       <c r="C41" t="s">
         <v>54</v>
       </c>
       <c r="D41" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="2"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
       <c r="C42" t="s">
         <v>52</v>
       </c>
       <c r="D42" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="2"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
       <c r="C43" t="s">
         <v>56</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="2"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G45" s="2"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
       <c r="C46" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="2"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="3" t="s">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="2"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
       <c r="C48" t="s">
         <v>64</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="2"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
       <c r="C49" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="5">
         <v>525</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="2"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="14" t="s">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="2"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
       <c r="C51" t="s">
         <v>68</v>
       </c>
       <c r="D51" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="2"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
       <c r="C52" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="2"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="B17:B32"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="E17:E32"/>
+    <mergeCell ref="F17:F32"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="E38:E43"/>
+    <mergeCell ref="F38:F43"/>
+    <mergeCell ref="B38:B43"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="G1:G52"/>
     <mergeCell ref="A53:F53"/>
@@ -1676,26 +1691,12 @@
     <mergeCell ref="F45:F52"/>
     <mergeCell ref="E34:E36"/>
     <mergeCell ref="F34:F36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="E38:E43"/>
-    <mergeCell ref="F38:F43"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="B17:B32"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="E17:E32"/>
-    <mergeCell ref="F17:F32"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="A11:A15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D11" r:id="rId1" xr:uid="{9BB9A23D-ED88-4E2C-A0DD-9C1496D87612}"/>
+    <hyperlink ref="D13" r:id="rId2" xr:uid="{0B292075-BFAB-4368-B405-D4A5ACB1BF53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>